--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2018_SciTechJA_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2018_SciTechJA_o.xlsx
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C144" t="n">
